--- a/Sprint Backlog.xlsx
+++ b/Sprint Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7845"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Tasks</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Matthew</t>
-  </si>
-  <si>
-    <t>Matthew</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,31 +73,28 @@
   </si>
   <si>
     <t>Completed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>David</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Completed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Everyone</t>
-  </si>
-  <si>
-    <t>Everyone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>David</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Completed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Completed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Edit and Commit Files for M2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,24 +148,36 @@
   <si>
     <t>Prepare UML Domain Models</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Inseok</t>
+  </si>
+  <si>
+    <t>Not Started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -295,7 +301,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,7 +335,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,22 +510,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,86 +551,95 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12">
       <c r="D7">
         <f>SUM(D2:D6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:G7" si="0">SUM(E2:E6)</f>
@@ -641,66 +654,78 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="L8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="L11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="D12">
         <f>SUM(D8:D11)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:G12" si="1">SUM(E8:E11)</f>
@@ -715,40 +740,58 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="D16">
         <f>SUM(D13:D15)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:G16" si="2">SUM(E13:E15)</f>
@@ -769,7 +812,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11 B13:B16">
       <formula1>$L$2:$L$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11 C13:C15">
       <formula1>$L$11:$L$13</formula1>
     </dataValidation>
   </dataValidations>
@@ -778,12 +821,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -791,12 +834,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
